--- a/biology/Botanique/Saccharomycetaceae/Saccharomycetaceae.xlsx
+++ b/biology/Botanique/Saccharomycetaceae/Saccharomycetaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Saccharomycetaceae sont une famille de champignons de l’ordre des Saccharomycetales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (17 janvier 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (17 janvier 2021) :
 Arxiozyma
 Azymohansenula
 Azymomyces
@@ -574,7 +588,7 @@
 Zygowillia
 Zymodebaryomyces
 Zymopichia
-Selon BioLib                    (17 janvier 2021)[2] :
+Selon BioLib                    (17 janvier 2021) :
 genre Eeniella M.T. Sm., Bat. Vegte &amp; Scheffers
 genre Kazachstania Zubcova
 genre Kluyveromyces Van der Walt
@@ -590,7 +604,7 @@
 genre Williopsis Zender
 genre Zygosaccharomyces B.T.P. Barker
 genre Zygotorulaspora Kurtzman
-Selon NCBI  (17 janvier 2021)[3] :
+Selon NCBI  (17 janvier 2021) :
 genre Arxiozyma Van der Walt &amp; Yarrow, 1984
 genre Citeromyces Santa María, 1957
 genre Cyniclomyces Van der Walt &amp; D.B. Scott, 1971
